--- a/StructureDefinition-ext-R5-ClaimResponse.error.xlsx
+++ b/StructureDefinition-ext-R5-ClaimResponse.error.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1062" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1062" uniqueCount="172">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -127,7 +127,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -512,15 +512,6 @@
   <si>
     <t xml:space="preserve">CodeableConcept
 </t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>The adjudication error codes.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-adjudication-error-for-R4</t>
   </si>
   <si>
     <t>Extension.extension:expression</t>
@@ -914,8 +905,8 @@
     <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="24.4453125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="58.046875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="15.3125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -3402,13 +3393,13 @@
         <v>77</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>158</v>
+        <v>77</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>159</v>
+        <v>77</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>160</v>
+        <v>77</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>77</v>
@@ -3446,13 +3437,13 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B25" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D25" t="s" s="2">
         <v>77</v>
@@ -3477,16 +3468,16 @@
         <v>94</v>
       </c>
       <c r="L25" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="O25" t="s" s="2">
         <v>163</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>166</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>77</v>
@@ -3555,7 +3546,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B26" t="s" s="2">
         <v>106</v>
@@ -3658,7 +3649,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B27" t="s" s="2">
         <v>108</v>
@@ -3763,7 +3754,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>114</v>
@@ -3806,7 +3797,7 @@
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="S28" t="s" s="2">
         <v>77</v>
@@ -3868,7 +3859,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B29" t="s" s="2">
         <v>123</v>
@@ -3897,13 +3888,13 @@
         <v>88</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -4104,13 +4095,13 @@
         <v>77</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
